--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample03-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample03-from-config-file.xlsx
@@ -6,6 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
+    <sheet name="ssss" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Invoice'!$A$2:$K$2</definedName>
@@ -16020,4 +16021,15 @@
   <pageSetup paperSize="8" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample03-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample03-from-config-file.xlsx
@@ -1404,7 +1404,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1463,12 +1463,6 @@
     <xf numFmtId="166" applyNumberFormat="1" fontId="4" applyFont="1" fillId="7" applyFill="1" xfId="19" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="7" applyFill="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="7" applyFill="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1509,17 +1503,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.39577102661133" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="10.8190710885184" customWidth="1"/>
-    <col min="3" max="3" width="21.1530857086182" customWidth="1"/>
+    <col min="3" max="3" width="20.0285186767578" customWidth="1"/>
     <col min="4" max="4" width="17.7731246948242" customWidth="1"/>
     <col min="5" max="5" width="26.5398646763393" customWidth="1"/>
     <col min="6" max="6" width="36.7100655691964" customWidth="1"/>
     <col min="7" max="7" width="18.1758411952427" customWidth="1"/>
-    <col min="8" max="8" width="8.32992172241211" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="14.2519204275949" customWidth="1"/>
     <col min="10" max="10" width="14.2115238734654" customWidth="1"/>
-    <col min="11" max="11" width="8.23375374930245" customWidth="1"/>
+    <col min="11" max="11" width="9.59976305280413" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1599,7 +1593,7 @@
       <c r="B3" s="18">
         <v>40248</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="16" t="s">
@@ -1634,7 +1628,7 @@
       <c r="B4" s="19">
         <v>40342</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="17" t="s">
@@ -1669,7 +1663,7 @@
       <c r="B5" s="18">
         <v>40436</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="16" t="s">
@@ -1704,7 +1698,7 @@
       <c r="B6" s="19">
         <v>40669</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="17" t="s">
@@ -1739,7 +1733,7 @@
       <c r="B7" s="18">
         <v>41209</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -1774,7 +1768,7 @@
       <c r="B8" s="19">
         <v>41250</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -1809,7 +1803,7 @@
       <c r="B9" s="18">
         <v>41493</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -1834,7 +1828,7 @@
         <v>21</v>
       </c>
       <c r="K9" s="12">
-        <v>8.90999984741211</v>
+        <v>-8.90999984741211</v>
       </c>
     </row>
     <row r="10">
@@ -1844,7 +1838,7 @@
       <c r="B10" s="19">
         <v>39814</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -1879,7 +1873,7 @@
       <c r="B11" s="18">
         <v>39855</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="16" t="s">
@@ -1914,7 +1908,7 @@
       <c r="B12" s="19">
         <v>40098</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -1949,7 +1943,7 @@
       <c r="B13" s="18">
         <v>40682</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="16" t="s">
@@ -1984,7 +1978,7 @@
       <c r="B14" s="19">
         <v>40776</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -2019,7 +2013,7 @@
       <c r="B15" s="18">
         <v>40870</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="16" t="s">
@@ -2054,7 +2048,7 @@
       <c r="B16" s="19">
         <v>41103</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="17" t="s">
@@ -2079,7 +2073,7 @@
         <v>30</v>
       </c>
       <c r="K16" s="13">
-        <v>0.99000000953674316</v>
+        <v>-0.99000000953674316</v>
       </c>
     </row>
     <row r="17">
@@ -2089,7 +2083,7 @@
       <c r="B17" s="18">
         <v>40248</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="16" t="s">
@@ -2124,7 +2118,7 @@
       <c r="B18" s="19">
         <v>40289</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -2159,7 +2153,7 @@
       <c r="B19" s="18">
         <v>40532</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="16" t="s">
@@ -2184,7 +2178,7 @@
         <v>38</v>
       </c>
       <c r="K19" s="12">
-        <v>8.90999984741211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2194,7 +2188,7 @@
       <c r="B20" s="19">
         <v>41116</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="17" t="s">
@@ -2229,7 +2223,7 @@
       <c r="B21" s="18">
         <v>41210</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="16" t="s">
@@ -2264,7 +2258,7 @@
       <c r="B22" s="19">
         <v>41304</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="17" t="s">
@@ -2299,7 +2293,7 @@
       <c r="B23" s="18">
         <v>41537</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="16" t="s">
@@ -2334,7 +2328,7 @@
       <c r="B24" s="19">
         <v>39815</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -2369,7 +2363,7 @@
       <c r="B25" s="18">
         <v>39909</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="16" t="s">
@@ -2404,7 +2398,7 @@
       <c r="B26" s="19">
         <v>40142</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="17" t="s">
@@ -2439,7 +2433,7 @@
       <c r="B27" s="18">
         <v>40682</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="16" t="s">
@@ -2474,7 +2468,7 @@
       <c r="B28" s="19">
         <v>40723</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="17" t="s">
@@ -2509,7 +2503,7 @@
       <c r="B29" s="18">
         <v>40966</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="16" t="s">
@@ -2544,7 +2538,7 @@
       <c r="B30" s="19">
         <v>41550</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="17" t="s">
@@ -2579,7 +2573,7 @@
       <c r="B31" s="18">
         <v>40155</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="16" t="s">
@@ -2614,7 +2608,7 @@
       <c r="B32" s="19">
         <v>40249</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="17" t="s">
@@ -2649,7 +2643,7 @@
       <c r="B33" s="18">
         <v>40343</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="16" t="s">
@@ -2684,7 +2678,7 @@
       <c r="B34" s="19">
         <v>40576</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D34" s="17" t="s">
@@ -2709,7 +2703,7 @@
         <v>52</v>
       </c>
       <c r="K34" s="13">
-        <v>0.99000000953674316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2719,7 +2713,7 @@
       <c r="B35" s="18">
         <v>41116</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="16" t="s">
@@ -2754,7 +2748,7 @@
       <c r="B36" s="19">
         <v>41157</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="17" t="s">
@@ -2789,7 +2783,7 @@
       <c r="B37" s="18">
         <v>41400</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D37" s="16" t="s">
@@ -2824,7 +2818,7 @@
       <c r="B38" s="19">
         <v>40005</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D38" s="17" t="s">
@@ -2859,7 +2853,7 @@
       <c r="B39" s="18">
         <v>40589</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D39" s="16" t="s">
@@ -2894,7 +2888,7 @@
       <c r="B40" s="19">
         <v>40683</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D40" s="17" t="s">
@@ -2929,7 +2923,7 @@
       <c r="B41" s="18">
         <v>40777</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="16" t="s">
@@ -2964,7 +2958,7 @@
       <c r="B42" s="19">
         <v>41010</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D42" s="17" t="s">
@@ -2999,7 +2993,7 @@
       <c r="B43" s="18">
         <v>41550</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="16" t="s">
@@ -3034,7 +3028,7 @@
       <c r="B44" s="19">
         <v>41591</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -3069,7 +3063,7 @@
       <c r="B45" s="18">
         <v>40155</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="16" t="s">
@@ -3104,7 +3098,7 @@
       <c r="B46" s="19">
         <v>40196</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D46" s="17" t="s">
@@ -3139,7 +3133,7 @@
       <c r="B47" s="18">
         <v>40439</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D47" s="16" t="s">
@@ -3174,7 +3168,7 @@
       <c r="B48" s="19">
         <v>41023</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="17" t="s">
@@ -3199,7 +3193,7 @@
         <v>64</v>
       </c>
       <c r="K48" s="13">
-        <v>1.9800000190734863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -3209,7 +3203,7 @@
       <c r="B49" s="18">
         <v>41117</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D49" s="16" t="s">
@@ -3244,7 +3238,7 @@
       <c r="B50" s="19">
         <v>41211</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D50" s="17" t="s">
@@ -3279,7 +3273,7 @@
       <c r="B51" s="18">
         <v>41444</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D51" s="16" t="s">
@@ -3314,7 +3308,7 @@
       <c r="B52" s="19">
         <v>39816</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D52" s="17" t="s">
@@ -3349,7 +3343,7 @@
       <c r="B53" s="18">
         <v>40049</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="16" t="s">
         <v>65</v>
       </c>
       <c r="D53" s="16" t="s">
@@ -3384,7 +3378,7 @@
       <c r="B54" s="19">
         <v>40589</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D54" s="17" t="s">
@@ -3419,7 +3413,7 @@
       <c r="B55" s="18">
         <v>40630</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="16" t="s">
         <v>65</v>
       </c>
       <c r="D55" s="16" t="s">
@@ -3454,7 +3448,7 @@
       <c r="B56" s="19">
         <v>40873</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -3489,7 +3483,7 @@
       <c r="B57" s="18">
         <v>41457</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="16" t="s">
         <v>65</v>
       </c>
       <c r="D57" s="16" t="s">
@@ -3524,7 +3518,7 @@
       <c r="B58" s="19">
         <v>41551</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D58" s="17" t="s">
@@ -3559,7 +3553,7 @@
       <c r="B59" s="18">
         <v>40062</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="16" t="s">
         <v>72</v>
       </c>
       <c r="D59" s="16" t="s">
@@ -3594,7 +3588,7 @@
       <c r="B60" s="19">
         <v>40156</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D60" s="17" t="s">
@@ -3629,7 +3623,7 @@
       <c r="B61" s="18">
         <v>40250</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="16" t="s">
         <v>72</v>
       </c>
       <c r="D61" s="16" t="s">
@@ -3664,7 +3658,7 @@
       <c r="B62" s="19">
         <v>40483</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D62" s="17" t="s">
@@ -3699,7 +3693,7 @@
       <c r="B63" s="18">
         <v>41023</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="16" t="s">
         <v>72</v>
       </c>
       <c r="D63" s="16" t="s">
@@ -3734,7 +3728,7 @@
       <c r="B64" s="19">
         <v>41064</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="17" t="s">
@@ -3769,7 +3763,7 @@
       <c r="B65" s="18">
         <v>41307</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="16" t="s">
         <v>72</v>
       </c>
       <c r="D65" s="16" t="s">
@@ -3804,7 +3798,7 @@
       <c r="B66" s="19">
         <v>39912</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D66" s="17" t="s">
@@ -3839,7 +3833,7 @@
       <c r="B67" s="18">
         <v>40496</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="16" t="s">
         <v>79</v>
       </c>
       <c r="D67" s="16" t="s">
@@ -3874,7 +3868,7 @@
       <c r="B68" s="19">
         <v>40590</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D68" s="17" t="s">
@@ -3909,7 +3903,7 @@
       <c r="B69" s="18">
         <v>40684</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="16" t="s">
         <v>79</v>
       </c>
       <c r="D69" s="16" t="s">
@@ -3944,7 +3938,7 @@
       <c r="B70" s="19">
         <v>40917</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D70" s="17" t="s">
@@ -3979,7 +3973,7 @@
       <c r="B71" s="18">
         <v>41457</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="16" t="s">
         <v>79</v>
       </c>
       <c r="D71" s="16" t="s">
@@ -4014,7 +4008,7 @@
       <c r="B72" s="19">
         <v>41498</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D72" s="17" t="s">
@@ -4049,7 +4043,7 @@
       <c r="B73" s="18">
         <v>40062</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D73" s="16" t="s">
@@ -4084,7 +4078,7 @@
       <c r="B74" s="19">
         <v>40103</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D74" s="17" t="s">
@@ -4119,7 +4113,7 @@
       <c r="B75" s="18">
         <v>40346</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D75" s="16" t="s">
@@ -4154,7 +4148,7 @@
       <c r="B76" s="19">
         <v>40930</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D76" s="17" t="s">
@@ -4189,7 +4183,7 @@
       <c r="B77" s="18">
         <v>41024</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D77" s="16" t="s">
@@ -4224,7 +4218,7 @@
       <c r="B78" s="19">
         <v>41118</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D78" s="17" t="s">
@@ -4259,7 +4253,7 @@
       <c r="B79" s="18">
         <v>41351</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D79" s="16" t="s">
@@ -4294,7 +4288,7 @@
       <c r="B80" s="19">
         <v>39956</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D80" s="17" t="s">
@@ -4319,7 +4313,7 @@
         <v>96</v>
       </c>
       <c r="K80" s="13">
-        <v>0.99000000953674316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -4329,7 +4323,7 @@
       <c r="B81" s="18">
         <v>40496</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="16" t="s">
         <v>90</v>
       </c>
       <c r="D81" s="16" t="s">
@@ -4364,7 +4358,7 @@
       <c r="B82" s="19">
         <v>40537</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D82" s="17" t="s">
@@ -4399,7 +4393,7 @@
       <c r="B83" s="18">
         <v>40780</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="16" t="s">
         <v>90</v>
       </c>
       <c r="D83" s="16" t="s">
@@ -4434,7 +4428,7 @@
       <c r="B84" s="19">
         <v>41364</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D84" s="17" t="s">
@@ -4469,7 +4463,7 @@
       <c r="B85" s="18">
         <v>41458</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="16" t="s">
         <v>90</v>
       </c>
       <c r="D85" s="16" t="s">
@@ -4504,7 +4498,7 @@
       <c r="B86" s="19">
         <v>41552</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D86" s="17" t="s">
@@ -4539,7 +4533,7 @@
       <c r="B87" s="18">
         <v>39969</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="16" t="s">
         <v>97</v>
       </c>
       <c r="D87" s="16" t="s">
@@ -4574,7 +4568,7 @@
       <c r="B88" s="19">
         <v>40063</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="17" t="s">
         <v>97</v>
       </c>
       <c r="D88" s="17" t="s">
@@ -4609,7 +4603,7 @@
       <c r="B89" s="18">
         <v>40157</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="16" t="s">
         <v>97</v>
       </c>
       <c r="D89" s="16" t="s">
@@ -4644,7 +4638,7 @@
       <c r="B90" s="19">
         <v>40390</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="17" t="s">
         <v>97</v>
       </c>
       <c r="D90" s="17" t="s">
@@ -4679,7 +4673,7 @@
       <c r="B91" s="18">
         <v>40930</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="16" t="s">
         <v>97</v>
       </c>
       <c r="D91" s="16" t="s">
@@ -4714,7 +4708,7 @@
       <c r="B92" s="19">
         <v>40971</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="17" t="s">
         <v>97</v>
       </c>
       <c r="D92" s="17" t="s">
@@ -4749,7 +4743,7 @@
       <c r="B93" s="18">
         <v>41214</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="C93" s="16" t="s">
         <v>97</v>
       </c>
       <c r="D93" s="16" t="s">
@@ -4784,7 +4778,7 @@
       <c r="B94" s="19">
         <v>39819</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="17" t="s">
         <v>104</v>
       </c>
       <c r="D94" s="17" t="s">
@@ -4819,7 +4813,7 @@
       <c r="B95" s="18">
         <v>40403</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="16" t="s">
         <v>104</v>
       </c>
       <c r="D95" s="16" t="s">
@@ -4854,7 +4848,7 @@
       <c r="B96" s="19">
         <v>40497</v>
       </c>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="17" t="s">
         <v>104</v>
       </c>
       <c r="D96" s="17" t="s">
@@ -4889,7 +4883,7 @@
       <c r="B97" s="18">
         <v>40591</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="16" t="s">
         <v>104</v>
       </c>
       <c r="D97" s="16" t="s">
@@ -4924,7 +4918,7 @@
       <c r="B98" s="19">
         <v>40824</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="17" t="s">
         <v>104</v>
       </c>
       <c r="D98" s="17" t="s">
@@ -4959,7 +4953,7 @@
       <c r="B99" s="18">
         <v>41364</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="16" t="s">
         <v>104</v>
       </c>
       <c r="D99" s="16" t="s">
@@ -4994,7 +4988,7 @@
       <c r="B100" s="19">
         <v>41405</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C100" s="17" t="s">
         <v>104</v>
       </c>
       <c r="D100" s="17" t="s">
@@ -5029,7 +5023,7 @@
       <c r="B101" s="18">
         <v>39969</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="16" t="s">
         <v>111</v>
       </c>
       <c r="D101" s="16" t="s">
@@ -5064,7 +5058,7 @@
       <c r="B102" s="19">
         <v>40010</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C102" s="17" t="s">
         <v>111</v>
       </c>
       <c r="D102" s="17" t="s">
@@ -5099,7 +5093,7 @@
       <c r="B103" s="18">
         <v>40253</v>
       </c>
-      <c r="C103" s="20" t="s">
+      <c r="C103" s="16" t="s">
         <v>111</v>
       </c>
       <c r="D103" s="16" t="s">
@@ -5134,7 +5128,7 @@
       <c r="B104" s="19">
         <v>40837</v>
       </c>
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="17" t="s">
         <v>111</v>
       </c>
       <c r="D104" s="17" t="s">
@@ -5159,7 +5153,7 @@
         <v>117</v>
       </c>
       <c r="K104" s="13">
-        <v>1.9800000190734863</v>
+        <v>-1.9800000190734863</v>
       </c>
     </row>
     <row r="105">
@@ -5169,7 +5163,7 @@
       <c r="B105" s="18">
         <v>40931</v>
       </c>
-      <c r="C105" s="20" t="s">
+      <c r="C105" s="16" t="s">
         <v>111</v>
       </c>
       <c r="D105" s="16" t="s">
@@ -5204,7 +5198,7 @@
       <c r="B106" s="19">
         <v>41025</v>
       </c>
-      <c r="C106" s="21" t="s">
+      <c r="C106" s="17" t="s">
         <v>111</v>
       </c>
       <c r="D106" s="17" t="s">
@@ -5239,7 +5233,7 @@
       <c r="B107" s="18">
         <v>41258</v>
       </c>
-      <c r="C107" s="20" t="s">
+      <c r="C107" s="16" t="s">
         <v>111</v>
       </c>
       <c r="D107" s="16" t="s">
@@ -5264,7 +5258,7 @@
         <v>117</v>
       </c>
       <c r="K107" s="12">
-        <v>0.99000000953674316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -5274,7 +5268,7 @@
       <c r="B108" s="19">
         <v>39863</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D108" s="17" t="s">
@@ -5309,7 +5303,7 @@
       <c r="B109" s="18">
         <v>40403</v>
       </c>
-      <c r="C109" s="20" t="s">
+      <c r="C109" s="16" t="s">
         <v>118</v>
       </c>
       <c r="D109" s="16" t="s">
@@ -5344,7 +5338,7 @@
       <c r="B110" s="19">
         <v>40444</v>
       </c>
-      <c r="C110" s="21" t="s">
+      <c r="C110" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D110" s="17" t="s">
@@ -5379,7 +5373,7 @@
       <c r="B111" s="18">
         <v>40687</v>
       </c>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="16" t="s">
         <v>118</v>
       </c>
       <c r="D111" s="16" t="s">
@@ -5414,7 +5408,7 @@
       <c r="B112" s="19">
         <v>41271</v>
       </c>
-      <c r="C112" s="21" t="s">
+      <c r="C112" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D112" s="17" t="s">
@@ -5449,7 +5443,7 @@
       <c r="B113" s="18">
         <v>41365</v>
       </c>
-      <c r="C113" s="20" t="s">
+      <c r="C113" s="16" t="s">
         <v>118</v>
       </c>
       <c r="D113" s="16" t="s">
@@ -5484,7 +5478,7 @@
       <c r="B114" s="19">
         <v>41459</v>
       </c>
-      <c r="C114" s="21" t="s">
+      <c r="C114" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D114" s="17" t="s">
@@ -5519,7 +5513,7 @@
       <c r="B115" s="18">
         <v>39876</v>
       </c>
-      <c r="C115" s="20" t="s">
+      <c r="C115" s="16" t="s">
         <v>126</v>
       </c>
       <c r="D115" s="16" t="s">
@@ -5554,7 +5548,7 @@
       <c r="B116" s="19">
         <v>39970</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C116" s="17" t="s">
         <v>126</v>
       </c>
       <c r="D116" s="17" t="s">
@@ -5589,7 +5583,7 @@
       <c r="B117" s="18">
         <v>40064</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="16" t="s">
         <v>126</v>
       </c>
       <c r="D117" s="16" t="s">
@@ -5624,7 +5618,7 @@
       <c r="B118" s="19">
         <v>40297</v>
       </c>
-      <c r="C118" s="21" t="s">
+      <c r="C118" s="17" t="s">
         <v>126</v>
       </c>
       <c r="D118" s="17" t="s">
@@ -5659,7 +5653,7 @@
       <c r="B119" s="18">
         <v>40837</v>
       </c>
-      <c r="C119" s="20" t="s">
+      <c r="C119" s="16" t="s">
         <v>126</v>
       </c>
       <c r="D119" s="16" t="s">
@@ -5694,7 +5688,7 @@
       <c r="B120" s="19">
         <v>40878</v>
       </c>
-      <c r="C120" s="21" t="s">
+      <c r="C120" s="17" t="s">
         <v>126</v>
       </c>
       <c r="D120" s="17" t="s">
@@ -5729,7 +5723,7 @@
       <c r="B121" s="18">
         <v>41121</v>
       </c>
-      <c r="C121" s="20" t="s">
+      <c r="C121" s="16" t="s">
         <v>126</v>
       </c>
       <c r="D121" s="16" t="s">
@@ -5764,7 +5758,7 @@
       <c r="B122" s="19">
         <v>40310</v>
       </c>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="17" t="s">
         <v>133</v>
       </c>
       <c r="D122" s="17" t="s">
@@ -5799,7 +5793,7 @@
       <c r="B123" s="18">
         <v>40404</v>
       </c>
-      <c r="C123" s="20" t="s">
+      <c r="C123" s="16" t="s">
         <v>133</v>
       </c>
       <c r="D123" s="16" t="s">
@@ -5834,7 +5828,7 @@
       <c r="B124" s="19">
         <v>40498</v>
       </c>
-      <c r="C124" s="21" t="s">
+      <c r="C124" s="17" t="s">
         <v>133</v>
       </c>
       <c r="D124" s="17" t="s">
@@ -5869,7 +5863,7 @@
       <c r="B125" s="18">
         <v>40731</v>
       </c>
-      <c r="C125" s="20" t="s">
+      <c r="C125" s="16" t="s">
         <v>133</v>
       </c>
       <c r="D125" s="16" t="s">
@@ -5904,7 +5898,7 @@
       <c r="B126" s="19">
         <v>41271</v>
       </c>
-      <c r="C126" s="21" t="s">
+      <c r="C126" s="17" t="s">
         <v>133</v>
       </c>
       <c r="D126" s="17" t="s">
@@ -5939,7 +5933,7 @@
       <c r="B127" s="18">
         <v>41312</v>
       </c>
-      <c r="C127" s="20" t="s">
+      <c r="C127" s="16" t="s">
         <v>133</v>
       </c>
       <c r="D127" s="16" t="s">
@@ -5974,7 +5968,7 @@
       <c r="B128" s="19">
         <v>41555</v>
       </c>
-      <c r="C128" s="21" t="s">
+      <c r="C128" s="17" t="s">
         <v>133</v>
       </c>
       <c r="D128" s="17" t="s">
@@ -6009,7 +6003,7 @@
       <c r="B129" s="18">
         <v>39876</v>
       </c>
-      <c r="C129" s="20" t="s">
+      <c r="C129" s="16" t="s">
         <v>140</v>
       </c>
       <c r="D129" s="16" t="s">
@@ -6044,7 +6038,7 @@
       <c r="B130" s="19">
         <v>39917</v>
       </c>
-      <c r="C130" s="21" t="s">
+      <c r="C130" s="17" t="s">
         <v>140</v>
       </c>
       <c r="D130" s="17" t="s">
@@ -6079,7 +6073,7 @@
       <c r="B131" s="18">
         <v>40160</v>
       </c>
-      <c r="C131" s="20" t="s">
+      <c r="C131" s="16" t="s">
         <v>140</v>
       </c>
       <c r="D131" s="16" t="s">
@@ -6114,7 +6108,7 @@
       <c r="B132" s="19">
         <v>40744</v>
       </c>
-      <c r="C132" s="21" t="s">
+      <c r="C132" s="17" t="s">
         <v>140</v>
       </c>
       <c r="D132" s="17" t="s">
@@ -6149,7 +6143,7 @@
       <c r="B133" s="18">
         <v>40838</v>
       </c>
-      <c r="C133" s="20" t="s">
+      <c r="C133" s="16" t="s">
         <v>140</v>
       </c>
       <c r="D133" s="16" t="s">
@@ -6184,7 +6178,7 @@
       <c r="B134" s="19">
         <v>40932</v>
       </c>
-      <c r="C134" s="21" t="s">
+      <c r="C134" s="17" t="s">
         <v>140</v>
       </c>
       <c r="D134" s="17" t="s">
@@ -6219,7 +6213,7 @@
       <c r="B135" s="18">
         <v>41165</v>
       </c>
-      <c r="C135" s="20" t="s">
+      <c r="C135" s="16" t="s">
         <v>140</v>
       </c>
       <c r="D135" s="16" t="s">
@@ -6254,7 +6248,7 @@
       <c r="B136" s="19">
         <v>40310</v>
       </c>
-      <c r="C136" s="21" t="s">
+      <c r="C136" s="17" t="s">
         <v>146</v>
       </c>
       <c r="D136" s="17" t="s">
@@ -6289,7 +6283,7 @@
       <c r="B137" s="18">
         <v>40351</v>
       </c>
-      <c r="C137" s="20" t="s">
+      <c r="C137" s="16" t="s">
         <v>146</v>
       </c>
       <c r="D137" s="16" t="s">
@@ -6324,7 +6318,7 @@
       <c r="B138" s="19">
         <v>40594</v>
       </c>
-      <c r="C138" s="21" t="s">
+      <c r="C138" s="17" t="s">
         <v>146</v>
       </c>
       <c r="D138" s="17" t="s">
@@ -6359,7 +6353,7 @@
       <c r="B139" s="18">
         <v>41178</v>
       </c>
-      <c r="C139" s="20" t="s">
+      <c r="C139" s="16" t="s">
         <v>146</v>
       </c>
       <c r="D139" s="16" t="s">
@@ -6394,7 +6388,7 @@
       <c r="B140" s="19">
         <v>41272</v>
       </c>
-      <c r="C140" s="21" t="s">
+      <c r="C140" s="17" t="s">
         <v>146</v>
       </c>
       <c r="D140" s="17" t="s">
@@ -6429,7 +6423,7 @@
       <c r="B141" s="18">
         <v>41366</v>
       </c>
-      <c r="C141" s="20" t="s">
+      <c r="C141" s="16" t="s">
         <v>146</v>
       </c>
       <c r="D141" s="16" t="s">
@@ -6464,7 +6458,7 @@
       <c r="B142" s="19">
         <v>41599</v>
       </c>
-      <c r="C142" s="21" t="s">
+      <c r="C142" s="17" t="s">
         <v>146</v>
       </c>
       <c r="D142" s="17" t="s">
@@ -6499,7 +6493,7 @@
       <c r="B143" s="18">
         <v>39877</v>
       </c>
-      <c r="C143" s="20" t="s">
+      <c r="C143" s="16" t="s">
         <v>151</v>
       </c>
       <c r="D143" s="16" t="s">
@@ -6534,7 +6528,7 @@
       <c r="B144" s="19">
         <v>39971</v>
       </c>
-      <c r="C144" s="21" t="s">
+      <c r="C144" s="17" t="s">
         <v>151</v>
       </c>
       <c r="D144" s="17" t="s">
@@ -6569,7 +6563,7 @@
       <c r="B145" s="18">
         <v>40204</v>
       </c>
-      <c r="C145" s="20" t="s">
+      <c r="C145" s="16" t="s">
         <v>151</v>
       </c>
       <c r="D145" s="16" t="s">
@@ -6604,7 +6598,7 @@
       <c r="B146" s="19">
         <v>40744</v>
       </c>
-      <c r="C146" s="21" t="s">
+      <c r="C146" s="17" t="s">
         <v>151</v>
       </c>
       <c r="D146" s="17" t="s">
@@ -6639,7 +6633,7 @@
       <c r="B147" s="18">
         <v>40785</v>
       </c>
-      <c r="C147" s="20" t="s">
+      <c r="C147" s="16" t="s">
         <v>151</v>
       </c>
       <c r="D147" s="16" t="s">
@@ -6674,7 +6668,7 @@
       <c r="B148" s="19">
         <v>41028</v>
       </c>
-      <c r="C148" s="21" t="s">
+      <c r="C148" s="17" t="s">
         <v>151</v>
       </c>
       <c r="D148" s="17" t="s">
@@ -6709,7 +6703,7 @@
       <c r="B149" s="18">
         <v>41612</v>
       </c>
-      <c r="C149" s="20" t="s">
+      <c r="C149" s="16" t="s">
         <v>151</v>
       </c>
       <c r="D149" s="16" t="s">
@@ -6744,7 +6738,7 @@
       <c r="B150" s="19">
         <v>40217</v>
       </c>
-      <c r="C150" s="21" t="s">
+      <c r="C150" s="17" t="s">
         <v>158</v>
       </c>
       <c r="D150" s="17" t="s">
@@ -6779,7 +6773,7 @@
       <c r="B151" s="18">
         <v>40311</v>
       </c>
-      <c r="C151" s="20" t="s">
+      <c r="C151" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D151" s="16" t="s">
@@ -6814,7 +6808,7 @@
       <c r="B152" s="19">
         <v>40405</v>
       </c>
-      <c r="C152" s="21" t="s">
+      <c r="C152" s="17" t="s">
         <v>158</v>
       </c>
       <c r="D152" s="17" t="s">
@@ -6849,7 +6843,7 @@
       <c r="B153" s="18">
         <v>40638</v>
       </c>
-      <c r="C153" s="20" t="s">
+      <c r="C153" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D153" s="16" t="s">
@@ -6884,7 +6878,7 @@
       <c r="B154" s="19">
         <v>41178</v>
       </c>
-      <c r="C154" s="21" t="s">
+      <c r="C154" s="17" t="s">
         <v>158</v>
       </c>
       <c r="D154" s="17" t="s">
@@ -6919,7 +6913,7 @@
       <c r="B155" s="18">
         <v>41219</v>
       </c>
-      <c r="C155" s="20" t="s">
+      <c r="C155" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D155" s="16" t="s">
@@ -6954,7 +6948,7 @@
       <c r="B156" s="19">
         <v>41462</v>
       </c>
-      <c r="C156" s="21" t="s">
+      <c r="C156" s="17" t="s">
         <v>158</v>
       </c>
       <c r="D156" s="17" t="s">
@@ -6989,7 +6983,7 @@
       <c r="B157" s="18">
         <v>39824</v>
       </c>
-      <c r="C157" s="20" t="s">
+      <c r="C157" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D157" s="16" t="s">
@@ -7024,7 +7018,7 @@
       <c r="B158" s="19">
         <v>40067</v>
       </c>
-      <c r="C158" s="21" t="s">
+      <c r="C158" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D158" s="17" t="s">
@@ -7059,7 +7053,7 @@
       <c r="B159" s="18">
         <v>40651</v>
       </c>
-      <c r="C159" s="20" t="s">
+      <c r="C159" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D159" s="16" t="s">
@@ -7094,7 +7088,7 @@
       <c r="B160" s="19">
         <v>40745</v>
       </c>
-      <c r="C160" s="21" t="s">
+      <c r="C160" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D160" s="17" t="s">
@@ -7129,7 +7123,7 @@
       <c r="B161" s="18">
         <v>40839</v>
       </c>
-      <c r="C161" s="20" t="s">
+      <c r="C161" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D161" s="16" t="s">
@@ -7164,7 +7158,7 @@
       <c r="B162" s="19">
         <v>41072</v>
       </c>
-      <c r="C162" s="21" t="s">
+      <c r="C162" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D162" s="17" t="s">
@@ -7199,7 +7193,7 @@
       <c r="B163" s="18">
         <v>41612</v>
       </c>
-      <c r="C163" s="20" t="s">
+      <c r="C163" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D163" s="16" t="s">
@@ -7234,7 +7228,7 @@
       <c r="B164" s="19">
         <v>40217</v>
       </c>
-      <c r="C164" s="21" t="s">
+      <c r="C164" s="17" t="s">
         <v>172</v>
       </c>
       <c r="D164" s="17" t="s">
@@ -7269,7 +7263,7 @@
       <c r="B165" s="18">
         <v>40258</v>
       </c>
-      <c r="C165" s="20" t="s">
+      <c r="C165" s="16" t="s">
         <v>172</v>
       </c>
       <c r="D165" s="16" t="s">
@@ -7304,7 +7298,7 @@
       <c r="B166" s="19">
         <v>40501</v>
       </c>
-      <c r="C166" s="21" t="s">
+      <c r="C166" s="17" t="s">
         <v>172</v>
       </c>
       <c r="D166" s="17" t="s">
@@ -7339,7 +7333,7 @@
       <c r="B167" s="18">
         <v>41085</v>
       </c>
-      <c r="C167" s="20" t="s">
+      <c r="C167" s="16" t="s">
         <v>172</v>
       </c>
       <c r="D167" s="16" t="s">
@@ -7374,7 +7368,7 @@
       <c r="B168" s="19">
         <v>41179</v>
       </c>
-      <c r="C168" s="21" t="s">
+      <c r="C168" s="17" t="s">
         <v>172</v>
       </c>
       <c r="D168" s="17" t="s">
@@ -7409,7 +7403,7 @@
       <c r="B169" s="18">
         <v>41273</v>
       </c>
-      <c r="C169" s="20" t="s">
+      <c r="C169" s="16" t="s">
         <v>172</v>
       </c>
       <c r="D169" s="16" t="s">
@@ -7444,7 +7438,7 @@
       <c r="B170" s="19">
         <v>41506</v>
       </c>
-      <c r="C170" s="21" t="s">
+      <c r="C170" s="17" t="s">
         <v>172</v>
       </c>
       <c r="D170" s="17" t="s">
@@ -7479,7 +7473,7 @@
       <c r="B171" s="18">
         <v>39878</v>
       </c>
-      <c r="C171" s="20" t="s">
+      <c r="C171" s="16" t="s">
         <v>179</v>
       </c>
       <c r="D171" s="16" t="s">
@@ -7514,7 +7508,7 @@
       <c r="B172" s="19">
         <v>40111</v>
       </c>
-      <c r="C172" s="21" t="s">
+      <c r="C172" s="17" t="s">
         <v>179</v>
       </c>
       <c r="D172" s="17" t="s">
@@ -7549,7 +7543,7 @@
       <c r="B173" s="18">
         <v>40651</v>
       </c>
-      <c r="C173" s="20" t="s">
+      <c r="C173" s="16" t="s">
         <v>179</v>
       </c>
       <c r="D173" s="16" t="s">
@@ -7584,7 +7578,7 @@
       <c r="B174" s="19">
         <v>40692</v>
       </c>
-      <c r="C174" s="21" t="s">
+      <c r="C174" s="17" t="s">
         <v>179</v>
       </c>
       <c r="D174" s="17" t="s">
@@ -7619,7 +7613,7 @@
       <c r="B175" s="18">
         <v>40935</v>
       </c>
-      <c r="C175" s="20" t="s">
+      <c r="C175" s="16" t="s">
         <v>179</v>
       </c>
       <c r="D175" s="16" t="s">
@@ -7654,7 +7648,7 @@
       <c r="B176" s="19">
         <v>41519</v>
       </c>
-      <c r="C176" s="21" t="s">
+      <c r="C176" s="17" t="s">
         <v>179</v>
       </c>
       <c r="D176" s="17" t="s">
@@ -7689,7 +7683,7 @@
       <c r="B177" s="18">
         <v>41613</v>
       </c>
-      <c r="C177" s="20" t="s">
+      <c r="C177" s="16" t="s">
         <v>179</v>
       </c>
       <c r="D177" s="16" t="s">
@@ -7724,7 +7718,7 @@
       <c r="B178" s="19">
         <v>40124</v>
       </c>
-      <c r="C178" s="21" t="s">
+      <c r="C178" s="17" t="s">
         <v>186</v>
       </c>
       <c r="D178" s="17" t="s">
@@ -7759,7 +7753,7 @@
       <c r="B179" s="18">
         <v>40218</v>
       </c>
-      <c r="C179" s="20" t="s">
+      <c r="C179" s="16" t="s">
         <v>186</v>
       </c>
       <c r="D179" s="16" t="s">
@@ -7794,7 +7788,7 @@
       <c r="B180" s="19">
         <v>40312</v>
       </c>
-      <c r="C180" s="21" t="s">
+      <c r="C180" s="17" t="s">
         <v>186</v>
       </c>
       <c r="D180" s="17" t="s">
@@ -7829,7 +7823,7 @@
       <c r="B181" s="18">
         <v>40545</v>
       </c>
-      <c r="C181" s="20" t="s">
+      <c r="C181" s="16" t="s">
         <v>186</v>
       </c>
       <c r="D181" s="16" t="s">
@@ -7864,7 +7858,7 @@
       <c r="B182" s="19">
         <v>41085</v>
       </c>
-      <c r="C182" s="21" t="s">
+      <c r="C182" s="17" t="s">
         <v>186</v>
       </c>
       <c r="D182" s="17" t="s">
@@ -7899,7 +7893,7 @@
       <c r="B183" s="18">
         <v>41126</v>
       </c>
-      <c r="C183" s="20" t="s">
+      <c r="C183" s="16" t="s">
         <v>186</v>
       </c>
       <c r="D183" s="16" t="s">
@@ -7934,7 +7928,7 @@
       <c r="B184" s="19">
         <v>41369</v>
       </c>
-      <c r="C184" s="21" t="s">
+      <c r="C184" s="17" t="s">
         <v>186</v>
       </c>
       <c r="D184" s="17" t="s">
@@ -7969,7 +7963,7 @@
       <c r="B185" s="18">
         <v>39974</v>
       </c>
-      <c r="C185" s="20" t="s">
+      <c r="C185" s="16" t="s">
         <v>193</v>
       </c>
       <c r="D185" s="16" t="s">
@@ -8004,7 +7998,7 @@
       <c r="B186" s="19">
         <v>40558</v>
       </c>
-      <c r="C186" s="21" t="s">
+      <c r="C186" s="17" t="s">
         <v>193</v>
       </c>
       <c r="D186" s="17" t="s">
@@ -8039,7 +8033,7 @@
       <c r="B187" s="18">
         <v>40652</v>
       </c>
-      <c r="C187" s="20" t="s">
+      <c r="C187" s="16" t="s">
         <v>193</v>
       </c>
       <c r="D187" s="16" t="s">
@@ -8074,7 +8068,7 @@
       <c r="B188" s="19">
         <v>40746</v>
       </c>
-      <c r="C188" s="21" t="s">
+      <c r="C188" s="17" t="s">
         <v>193</v>
       </c>
       <c r="D188" s="17" t="s">
@@ -8109,7 +8103,7 @@
       <c r="B189" s="18">
         <v>40979</v>
       </c>
-      <c r="C189" s="20" t="s">
+      <c r="C189" s="16" t="s">
         <v>193</v>
       </c>
       <c r="D189" s="16" t="s">
@@ -8144,7 +8138,7 @@
       <c r="B190" s="19">
         <v>41519</v>
       </c>
-      <c r="C190" s="21" t="s">
+      <c r="C190" s="17" t="s">
         <v>193</v>
       </c>
       <c r="D190" s="17" t="s">
@@ -8179,7 +8173,7 @@
       <c r="B191" s="18">
         <v>41560</v>
       </c>
-      <c r="C191" s="20" t="s">
+      <c r="C191" s="16" t="s">
         <v>193</v>
       </c>
       <c r="D191" s="16" t="s">
@@ -8214,7 +8208,7 @@
       <c r="B192" s="19">
         <v>40124</v>
       </c>
-      <c r="C192" s="21" t="s">
+      <c r="C192" s="17" t="s">
         <v>200</v>
       </c>
       <c r="D192" s="17" t="s">
@@ -8249,7 +8243,7 @@
       <c r="B193" s="18">
         <v>40165</v>
       </c>
-      <c r="C193" s="20" t="s">
+      <c r="C193" s="16" t="s">
         <v>200</v>
       </c>
       <c r="D193" s="16" t="s">
@@ -8284,7 +8278,7 @@
       <c r="B194" s="19">
         <v>40408</v>
       </c>
-      <c r="C194" s="21" t="s">
+      <c r="C194" s="17" t="s">
         <v>200</v>
       </c>
       <c r="D194" s="17" t="s">
@@ -8319,7 +8313,7 @@
       <c r="B195" s="18">
         <v>40992</v>
       </c>
-      <c r="C195" s="20" t="s">
+      <c r="C195" s="16" t="s">
         <v>200</v>
       </c>
       <c r="D195" s="16" t="s">
@@ -8354,7 +8348,7 @@
       <c r="B196" s="19">
         <v>41086</v>
       </c>
-      <c r="C196" s="21" t="s">
+      <c r="C196" s="17" t="s">
         <v>200</v>
       </c>
       <c r="D196" s="17" t="s">
@@ -8389,7 +8383,7 @@
       <c r="B197" s="18">
         <v>41180</v>
       </c>
-      <c r="C197" s="20" t="s">
+      <c r="C197" s="16" t="s">
         <v>200</v>
       </c>
       <c r="D197" s="16" t="s">
@@ -8424,7 +8418,7 @@
       <c r="B198" s="19">
         <v>41413</v>
       </c>
-      <c r="C198" s="21" t="s">
+      <c r="C198" s="17" t="s">
         <v>200</v>
       </c>
       <c r="D198" s="17" t="s">
@@ -8459,7 +8453,7 @@
       <c r="B199" s="18">
         <v>40018</v>
       </c>
-      <c r="C199" s="20" t="s">
+      <c r="C199" s="16" t="s">
         <v>207</v>
       </c>
       <c r="D199" s="16" t="s">
@@ -8494,7 +8488,7 @@
       <c r="B200" s="19">
         <v>40558</v>
       </c>
-      <c r="C200" s="21" t="s">
+      <c r="C200" s="17" t="s">
         <v>207</v>
       </c>
       <c r="D200" s="17" t="s">
@@ -8529,7 +8523,7 @@
       <c r="B201" s="18">
         <v>40599</v>
       </c>
-      <c r="C201" s="20" t="s">
+      <c r="C201" s="16" t="s">
         <v>207</v>
       </c>
       <c r="D201" s="16" t="s">
@@ -8564,7 +8558,7 @@
       <c r="B202" s="19">
         <v>40842</v>
       </c>
-      <c r="C202" s="21" t="s">
+      <c r="C202" s="17" t="s">
         <v>207</v>
       </c>
       <c r="D202" s="17" t="s">
@@ -8599,7 +8593,7 @@
       <c r="B203" s="18">
         <v>41426</v>
       </c>
-      <c r="C203" s="20" t="s">
+      <c r="C203" s="16" t="s">
         <v>207</v>
       </c>
       <c r="D203" s="16" t="s">
@@ -8634,7 +8628,7 @@
       <c r="B204" s="19">
         <v>41520</v>
       </c>
-      <c r="C204" s="21" t="s">
+      <c r="C204" s="17" t="s">
         <v>207</v>
       </c>
       <c r="D204" s="17" t="s">
@@ -8669,7 +8663,7 @@
       <c r="B205" s="18">
         <v>41614</v>
       </c>
-      <c r="C205" s="20" t="s">
+      <c r="C205" s="16" t="s">
         <v>207</v>
       </c>
       <c r="D205" s="16" t="s">
@@ -8704,7 +8698,7 @@
       <c r="B206" s="19">
         <v>40031</v>
       </c>
-      <c r="C206" s="21" t="s">
+      <c r="C206" s="17" t="s">
         <v>214</v>
       </c>
       <c r="D206" s="17" t="s">
@@ -8739,7 +8733,7 @@
       <c r="B207" s="18">
         <v>40125</v>
       </c>
-      <c r="C207" s="20" t="s">
+      <c r="C207" s="16" t="s">
         <v>214</v>
       </c>
       <c r="D207" s="16" t="s">
@@ -8774,7 +8768,7 @@
       <c r="B208" s="19">
         <v>40219</v>
       </c>
-      <c r="C208" s="21" t="s">
+      <c r="C208" s="17" t="s">
         <v>214</v>
       </c>
       <c r="D208" s="17" t="s">
@@ -8809,7 +8803,7 @@
       <c r="B209" s="18">
         <v>40452</v>
       </c>
-      <c r="C209" s="20" t="s">
+      <c r="C209" s="16" t="s">
         <v>214</v>
       </c>
       <c r="D209" s="16" t="s">
@@ -8844,7 +8838,7 @@
       <c r="B210" s="19">
         <v>40992</v>
       </c>
-      <c r="C210" s="21" t="s">
+      <c r="C210" s="17" t="s">
         <v>214</v>
       </c>
       <c r="D210" s="17" t="s">
@@ -8879,7 +8873,7 @@
       <c r="B211" s="18">
         <v>41033</v>
       </c>
-      <c r="C211" s="20" t="s">
+      <c r="C211" s="16" t="s">
         <v>214</v>
       </c>
       <c r="D211" s="16" t="s">
@@ -8914,7 +8908,7 @@
       <c r="B212" s="19">
         <v>41276</v>
       </c>
-      <c r="C212" s="21" t="s">
+      <c r="C212" s="17" t="s">
         <v>214</v>
       </c>
       <c r="D212" s="17" t="s">
@@ -8949,7 +8943,7 @@
       <c r="B213" s="18">
         <v>39881</v>
       </c>
-      <c r="C213" s="20" t="s">
+      <c r="C213" s="16" t="s">
         <v>220</v>
       </c>
       <c r="D213" s="16" t="s">
@@ -8984,7 +8978,7 @@
       <c r="B214" s="19">
         <v>40465</v>
       </c>
-      <c r="C214" s="21" t="s">
+      <c r="C214" s="17" t="s">
         <v>220</v>
       </c>
       <c r="D214" s="17" t="s">
@@ -9019,7 +9013,7 @@
       <c r="B215" s="18">
         <v>40559</v>
       </c>
-      <c r="C215" s="20" t="s">
+      <c r="C215" s="16" t="s">
         <v>220</v>
       </c>
       <c r="D215" s="16" t="s">
@@ -9054,7 +9048,7 @@
       <c r="B216" s="19">
         <v>40653</v>
       </c>
-      <c r="C216" s="21" t="s">
+      <c r="C216" s="17" t="s">
         <v>220</v>
       </c>
       <c r="D216" s="17" t="s">
@@ -9089,7 +9083,7 @@
       <c r="B217" s="18">
         <v>40886</v>
       </c>
-      <c r="C217" s="20" t="s">
+      <c r="C217" s="16" t="s">
         <v>220</v>
       </c>
       <c r="D217" s="16" t="s">
@@ -9124,7 +9118,7 @@
       <c r="B218" s="19">
         <v>41426</v>
       </c>
-      <c r="C218" s="21" t="s">
+      <c r="C218" s="17" t="s">
         <v>220</v>
       </c>
       <c r="D218" s="17" t="s">
@@ -9159,7 +9153,7 @@
       <c r="B219" s="18">
         <v>41467</v>
       </c>
-      <c r="C219" s="20" t="s">
+      <c r="C219" s="16" t="s">
         <v>220</v>
       </c>
       <c r="D219" s="16" t="s">
@@ -9194,7 +9188,7 @@
       <c r="B220" s="19">
         <v>40031</v>
       </c>
-      <c r="C220" s="21" t="s">
+      <c r="C220" s="17" t="s">
         <v>227</v>
       </c>
       <c r="D220" s="17" t="s">
@@ -9229,7 +9223,7 @@
       <c r="B221" s="18">
         <v>40072</v>
       </c>
-      <c r="C221" s="20" t="s">
+      <c r="C221" s="16" t="s">
         <v>227</v>
       </c>
       <c r="D221" s="16" t="s">
@@ -9264,7 +9258,7 @@
       <c r="B222" s="19">
         <v>40315</v>
       </c>
-      <c r="C222" s="21" t="s">
+      <c r="C222" s="17" t="s">
         <v>227</v>
       </c>
       <c r="D222" s="17" t="s">
@@ -9299,7 +9293,7 @@
       <c r="B223" s="18">
         <v>40899</v>
       </c>
-      <c r="C223" s="20" t="s">
+      <c r="C223" s="16" t="s">
         <v>227</v>
       </c>
       <c r="D223" s="16" t="s">
@@ -9334,7 +9328,7 @@
       <c r="B224" s="19">
         <v>40993</v>
       </c>
-      <c r="C224" s="21" t="s">
+      <c r="C224" s="17" t="s">
         <v>227</v>
       </c>
       <c r="D224" s="17" t="s">
@@ -9369,7 +9363,7 @@
       <c r="B225" s="18">
         <v>41087</v>
       </c>
-      <c r="C225" s="20" t="s">
+      <c r="C225" s="16" t="s">
         <v>227</v>
       </c>
       <c r="D225" s="16" t="s">
@@ -9404,7 +9398,7 @@
       <c r="B226" s="19">
         <v>41320</v>
       </c>
-      <c r="C226" s="21" t="s">
+      <c r="C226" s="17" t="s">
         <v>227</v>
       </c>
       <c r="D226" s="17" t="s">
@@ -9439,7 +9433,7 @@
       <c r="B227" s="18">
         <v>39925</v>
       </c>
-      <c r="C227" s="20" t="s">
+      <c r="C227" s="16" t="s">
         <v>234</v>
       </c>
       <c r="D227" s="16" t="s">
@@ -9474,7 +9468,7 @@
       <c r="B228" s="19">
         <v>40465</v>
       </c>
-      <c r="C228" s="21" t="s">
+      <c r="C228" s="17" t="s">
         <v>234</v>
       </c>
       <c r="D228" s="17" t="s">
@@ -9509,7 +9503,7 @@
       <c r="B229" s="18">
         <v>40506</v>
       </c>
-      <c r="C229" s="20" t="s">
+      <c r="C229" s="16" t="s">
         <v>234</v>
       </c>
       <c r="D229" s="16" t="s">
@@ -9544,7 +9538,7 @@
       <c r="B230" s="19">
         <v>40749</v>
       </c>
-      <c r="C230" s="21" t="s">
+      <c r="C230" s="17" t="s">
         <v>234</v>
       </c>
       <c r="D230" s="17" t="s">
@@ -9579,7 +9573,7 @@
       <c r="B231" s="18">
         <v>41333</v>
       </c>
-      <c r="C231" s="20" t="s">
+      <c r="C231" s="16" t="s">
         <v>234</v>
       </c>
       <c r="D231" s="16" t="s">
@@ -9614,7 +9608,7 @@
       <c r="B232" s="19">
         <v>41427</v>
       </c>
-      <c r="C232" s="21" t="s">
+      <c r="C232" s="17" t="s">
         <v>234</v>
       </c>
       <c r="D232" s="17" t="s">
@@ -9649,7 +9643,7 @@
       <c r="B233" s="18">
         <v>41521</v>
       </c>
-      <c r="C233" s="20" t="s">
+      <c r="C233" s="16" t="s">
         <v>234</v>
       </c>
       <c r="D233" s="16" t="s">
@@ -9684,7 +9678,7 @@
       <c r="B234" s="19">
         <v>39938</v>
       </c>
-      <c r="C234" s="21" t="s">
+      <c r="C234" s="17" t="s">
         <v>241</v>
       </c>
       <c r="D234" s="17" t="s">
@@ -9719,7 +9713,7 @@
       <c r="B235" s="18">
         <v>40032</v>
       </c>
-      <c r="C235" s="20" t="s">
+      <c r="C235" s="16" t="s">
         <v>241</v>
       </c>
       <c r="D235" s="16" t="s">
@@ -9754,7 +9748,7 @@
       <c r="B236" s="19">
         <v>40126</v>
       </c>
-      <c r="C236" s="21" t="s">
+      <c r="C236" s="17" t="s">
         <v>241</v>
       </c>
       <c r="D236" s="17" t="s">
@@ -9789,7 +9783,7 @@
       <c r="B237" s="18">
         <v>40359</v>
       </c>
-      <c r="C237" s="20" t="s">
+      <c r="C237" s="16" t="s">
         <v>241</v>
       </c>
       <c r="D237" s="16" t="s">
@@ -9824,7 +9818,7 @@
       <c r="B238" s="19">
         <v>40899</v>
       </c>
-      <c r="C238" s="21" t="s">
+      <c r="C238" s="17" t="s">
         <v>241</v>
       </c>
       <c r="D238" s="17" t="s">
@@ -9859,7 +9853,7 @@
       <c r="B239" s="18">
         <v>40940</v>
       </c>
-      <c r="C239" s="20" t="s">
+      <c r="C239" s="16" t="s">
         <v>241</v>
       </c>
       <c r="D239" s="16" t="s">
@@ -9894,7 +9888,7 @@
       <c r="B240" s="19">
         <v>41183</v>
       </c>
-      <c r="C240" s="21" t="s">
+      <c r="C240" s="17" t="s">
         <v>241</v>
       </c>
       <c r="D240" s="17" t="s">
@@ -9929,7 +9923,7 @@
       <c r="B241" s="18">
         <v>40372</v>
       </c>
-      <c r="C241" s="20" t="s">
+      <c r="C241" s="16" t="s">
         <v>247</v>
       </c>
       <c r="D241" s="16" t="s">
@@ -9964,7 +9958,7 @@
       <c r="B242" s="19">
         <v>40466</v>
       </c>
-      <c r="C242" s="21" t="s">
+      <c r="C242" s="17" t="s">
         <v>247</v>
       </c>
       <c r="D242" s="17" t="s">
@@ -9999,7 +9993,7 @@
       <c r="B243" s="18">
         <v>40560</v>
       </c>
-      <c r="C243" s="20" t="s">
+      <c r="C243" s="16" t="s">
         <v>247</v>
       </c>
       <c r="D243" s="16" t="s">
@@ -10034,7 +10028,7 @@
       <c r="B244" s="19">
         <v>40793</v>
       </c>
-      <c r="C244" s="21" t="s">
+      <c r="C244" s="17" t="s">
         <v>247</v>
       </c>
       <c r="D244" s="17" t="s">
@@ -10069,7 +10063,7 @@
       <c r="B245" s="18">
         <v>41333</v>
       </c>
-      <c r="C245" s="20" t="s">
+      <c r="C245" s="16" t="s">
         <v>247</v>
       </c>
       <c r="D245" s="16" t="s">
@@ -10104,7 +10098,7 @@
       <c r="B246" s="19">
         <v>41374</v>
       </c>
-      <c r="C246" s="21" t="s">
+      <c r="C246" s="17" t="s">
         <v>247</v>
       </c>
       <c r="D246" s="17" t="s">
@@ -10139,7 +10133,7 @@
       <c r="B247" s="18">
         <v>41617</v>
       </c>
-      <c r="C247" s="20" t="s">
+      <c r="C247" s="16" t="s">
         <v>247</v>
       </c>
       <c r="D247" s="16" t="s">
@@ -10174,7 +10168,7 @@
       <c r="B248" s="19">
         <v>39938</v>
       </c>
-      <c r="C248" s="21" t="s">
+      <c r="C248" s="17" t="s">
         <v>252</v>
       </c>
       <c r="D248" s="17" t="s">
@@ -10209,7 +10203,7 @@
       <c r="B249" s="18">
         <v>39979</v>
       </c>
-      <c r="C249" s="20" t="s">
+      <c r="C249" s="16" t="s">
         <v>252</v>
       </c>
       <c r="D249" s="16" t="s">
@@ -10244,7 +10238,7 @@
       <c r="B250" s="19">
         <v>40222</v>
       </c>
-      <c r="C250" s="21" t="s">
+      <c r="C250" s="17" t="s">
         <v>252</v>
       </c>
       <c r="D250" s="17" t="s">
@@ -10279,7 +10273,7 @@
       <c r="B251" s="18">
         <v>40806</v>
       </c>
-      <c r="C251" s="20" t="s">
+      <c r="C251" s="16" t="s">
         <v>252</v>
       </c>
       <c r="D251" s="16" t="s">
@@ -10314,7 +10308,7 @@
       <c r="B252" s="19">
         <v>40900</v>
       </c>
-      <c r="C252" s="21" t="s">
+      <c r="C252" s="17" t="s">
         <v>252</v>
       </c>
       <c r="D252" s="17" t="s">
@@ -10349,7 +10343,7 @@
       <c r="B253" s="18">
         <v>40994</v>
       </c>
-      <c r="C253" s="20" t="s">
+      <c r="C253" s="16" t="s">
         <v>252</v>
       </c>
       <c r="D253" s="16" t="s">
@@ -10384,7 +10378,7 @@
       <c r="B254" s="19">
         <v>41227</v>
       </c>
-      <c r="C254" s="21" t="s">
+      <c r="C254" s="17" t="s">
         <v>252</v>
       </c>
       <c r="D254" s="17" t="s">
@@ -10419,7 +10413,7 @@
       <c r="B255" s="18">
         <v>39832</v>
       </c>
-      <c r="C255" s="20" t="s">
+      <c r="C255" s="16" t="s">
         <v>258</v>
       </c>
       <c r="D255" s="16" t="s">
@@ -10454,7 +10448,7 @@
       <c r="B256" s="19">
         <v>40372</v>
       </c>
-      <c r="C256" s="21" t="s">
+      <c r="C256" s="17" t="s">
         <v>258</v>
       </c>
       <c r="D256" s="17" t="s">
@@ -10489,7 +10483,7 @@
       <c r="B257" s="18">
         <v>40413</v>
       </c>
-      <c r="C257" s="20" t="s">
+      <c r="C257" s="16" t="s">
         <v>258</v>
       </c>
       <c r="D257" s="16" t="s">
@@ -10524,7 +10518,7 @@
       <c r="B258" s="19">
         <v>40656</v>
       </c>
-      <c r="C258" s="21" t="s">
+      <c r="C258" s="17" t="s">
         <v>258</v>
       </c>
       <c r="D258" s="17" t="s">
@@ -10559,7 +10553,7 @@
       <c r="B259" s="18">
         <v>41240</v>
       </c>
-      <c r="C259" s="20" t="s">
+      <c r="C259" s="16" t="s">
         <v>258</v>
       </c>
       <c r="D259" s="16" t="s">
@@ -10594,7 +10588,7 @@
       <c r="B260" s="19">
         <v>41334</v>
       </c>
-      <c r="C260" s="21" t="s">
+      <c r="C260" s="17" t="s">
         <v>258</v>
       </c>
       <c r="D260" s="17" t="s">
@@ -10629,7 +10623,7 @@
       <c r="B261" s="18">
         <v>41428</v>
       </c>
-      <c r="C261" s="20" t="s">
+      <c r="C261" s="16" t="s">
         <v>258</v>
       </c>
       <c r="D261" s="16" t="s">
@@ -10664,7 +10658,7 @@
       <c r="B262" s="19">
         <v>39845</v>
       </c>
-      <c r="C262" s="21" t="s">
+      <c r="C262" s="17" t="s">
         <v>264</v>
       </c>
       <c r="D262" s="17" t="s">
@@ -10699,7 +10693,7 @@
       <c r="B263" s="18">
         <v>39939</v>
       </c>
-      <c r="C263" s="20" t="s">
+      <c r="C263" s="16" t="s">
         <v>264</v>
       </c>
       <c r="D263" s="16" t="s">
@@ -10734,7 +10728,7 @@
       <c r="B264" s="19">
         <v>40033</v>
       </c>
-      <c r="C264" s="21" t="s">
+      <c r="C264" s="17" t="s">
         <v>264</v>
       </c>
       <c r="D264" s="17" t="s">
@@ -10769,7 +10763,7 @@
       <c r="B265" s="18">
         <v>40266</v>
       </c>
-      <c r="C265" s="20" t="s">
+      <c r="C265" s="16" t="s">
         <v>264</v>
       </c>
       <c r="D265" s="16" t="s">
@@ -10804,7 +10798,7 @@
       <c r="B266" s="19">
         <v>40806</v>
       </c>
-      <c r="C266" s="21" t="s">
+      <c r="C266" s="17" t="s">
         <v>264</v>
       </c>
       <c r="D266" s="17" t="s">
@@ -10839,7 +10833,7 @@
       <c r="B267" s="18">
         <v>40847</v>
       </c>
-      <c r="C267" s="20" t="s">
+      <c r="C267" s="16" t="s">
         <v>264</v>
       </c>
       <c r="D267" s="16" t="s">
@@ -10874,7 +10868,7 @@
       <c r="B268" s="19">
         <v>41090</v>
       </c>
-      <c r="C268" s="21" t="s">
+      <c r="C268" s="17" t="s">
         <v>264</v>
       </c>
       <c r="D268" s="17" t="s">
@@ -10909,7 +10903,7 @@
       <c r="B269" s="18">
         <v>40279</v>
       </c>
-      <c r="C269" s="20" t="s">
+      <c r="C269" s="16" t="s">
         <v>269</v>
       </c>
       <c r="D269" s="16" t="s">
@@ -10944,7 +10938,7 @@
       <c r="B270" s="19">
         <v>40373</v>
       </c>
-      <c r="C270" s="21" t="s">
+      <c r="C270" s="17" t="s">
         <v>269</v>
       </c>
       <c r="D270" s="17" t="s">
@@ -10979,7 +10973,7 @@
       <c r="B271" s="18">
         <v>40467</v>
       </c>
-      <c r="C271" s="20" t="s">
+      <c r="C271" s="16" t="s">
         <v>269</v>
       </c>
       <c r="D271" s="16" t="s">
@@ -11014,7 +11008,7 @@
       <c r="B272" s="19">
         <v>40700</v>
       </c>
-      <c r="C272" s="21" t="s">
+      <c r="C272" s="17" t="s">
         <v>269</v>
       </c>
       <c r="D272" s="17" t="s">
@@ -11049,7 +11043,7 @@
       <c r="B273" s="18">
         <v>41240</v>
       </c>
-      <c r="C273" s="20" t="s">
+      <c r="C273" s="16" t="s">
         <v>269</v>
       </c>
       <c r="D273" s="16" t="s">
@@ -11084,7 +11078,7 @@
       <c r="B274" s="19">
         <v>41281</v>
       </c>
-      <c r="C274" s="21" t="s">
+      <c r="C274" s="17" t="s">
         <v>269</v>
       </c>
       <c r="D274" s="17" t="s">
@@ -11119,7 +11113,7 @@
       <c r="B275" s="18">
         <v>41524</v>
       </c>
-      <c r="C275" s="20" t="s">
+      <c r="C275" s="16" t="s">
         <v>269</v>
       </c>
       <c r="D275" s="16" t="s">
@@ -11154,7 +11148,7 @@
       <c r="B276" s="19">
         <v>39845</v>
       </c>
-      <c r="C276" s="21" t="s">
+      <c r="C276" s="17" t="s">
         <v>276</v>
       </c>
       <c r="D276" s="17" t="s">
@@ -11189,7 +11183,7 @@
       <c r="B277" s="18">
         <v>39886</v>
       </c>
-      <c r="C277" s="20" t="s">
+      <c r="C277" s="16" t="s">
         <v>276</v>
       </c>
       <c r="D277" s="16" t="s">
@@ -11224,7 +11218,7 @@
       <c r="B278" s="19">
         <v>40129</v>
       </c>
-      <c r="C278" s="21" t="s">
+      <c r="C278" s="17" t="s">
         <v>276</v>
       </c>
       <c r="D278" s="17" t="s">
@@ -11259,7 +11253,7 @@
       <c r="B279" s="18">
         <v>40713</v>
       </c>
-      <c r="C279" s="20" t="s">
+      <c r="C279" s="16" t="s">
         <v>276</v>
       </c>
       <c r="D279" s="16" t="s">
@@ -11294,7 +11288,7 @@
       <c r="B280" s="19">
         <v>40807</v>
       </c>
-      <c r="C280" s="21" t="s">
+      <c r="C280" s="17" t="s">
         <v>276</v>
       </c>
       <c r="D280" s="17" t="s">
@@ -11329,7 +11323,7 @@
       <c r="B281" s="18">
         <v>40901</v>
       </c>
-      <c r="C281" s="20" t="s">
+      <c r="C281" s="16" t="s">
         <v>276</v>
       </c>
       <c r="D281" s="16" t="s">
@@ -11364,7 +11358,7 @@
       <c r="B282" s="19">
         <v>41134</v>
       </c>
-      <c r="C282" s="21" t="s">
+      <c r="C282" s="17" t="s">
         <v>276</v>
       </c>
       <c r="D282" s="17" t="s">
@@ -11399,7 +11393,7 @@
       <c r="B283" s="18">
         <v>40279</v>
       </c>
-      <c r="C283" s="20" t="s">
+      <c r="C283" s="16" t="s">
         <v>281</v>
       </c>
       <c r="D283" s="16" t="s">
@@ -11434,7 +11428,7 @@
       <c r="B284" s="19">
         <v>40320</v>
       </c>
-      <c r="C284" s="21" t="s">
+      <c r="C284" s="17" t="s">
         <v>281</v>
       </c>
       <c r="D284" s="17" t="s">
@@ -11469,7 +11463,7 @@
       <c r="B285" s="18">
         <v>40563</v>
       </c>
-      <c r="C285" s="20" t="s">
+      <c r="C285" s="16" t="s">
         <v>281</v>
       </c>
       <c r="D285" s="16" t="s">
@@ -11504,7 +11498,7 @@
       <c r="B286" s="19">
         <v>41147</v>
       </c>
-      <c r="C286" s="21" t="s">
+      <c r="C286" s="17" t="s">
         <v>281</v>
       </c>
       <c r="D286" s="17" t="s">
@@ -11539,7 +11533,7 @@
       <c r="B287" s="18">
         <v>41241</v>
       </c>
-      <c r="C287" s="20" t="s">
+      <c r="C287" s="16" t="s">
         <v>281</v>
       </c>
       <c r="D287" s="16" t="s">
@@ -11574,7 +11568,7 @@
       <c r="B288" s="19">
         <v>41335</v>
       </c>
-      <c r="C288" s="21" t="s">
+      <c r="C288" s="17" t="s">
         <v>281</v>
       </c>
       <c r="D288" s="17" t="s">
@@ -11609,7 +11603,7 @@
       <c r="B289" s="18">
         <v>41568</v>
       </c>
-      <c r="C289" s="20" t="s">
+      <c r="C289" s="16" t="s">
         <v>281</v>
       </c>
       <c r="D289" s="16" t="s">
@@ -11644,7 +11638,7 @@
       <c r="B290" s="19">
         <v>39846</v>
       </c>
-      <c r="C290" s="21" t="s">
+      <c r="C290" s="17" t="s">
         <v>287</v>
       </c>
       <c r="D290" s="17" t="s">
@@ -11679,7 +11673,7 @@
       <c r="B291" s="18">
         <v>39940</v>
       </c>
-      <c r="C291" s="20" t="s">
+      <c r="C291" s="16" t="s">
         <v>287</v>
       </c>
       <c r="D291" s="16" t="s">
@@ -11714,7 +11708,7 @@
       <c r="B292" s="19">
         <v>40173</v>
       </c>
-      <c r="C292" s="21" t="s">
+      <c r="C292" s="17" t="s">
         <v>287</v>
       </c>
       <c r="D292" s="17" t="s">
@@ -11749,7 +11743,7 @@
       <c r="B293" s="18">
         <v>40713</v>
       </c>
-      <c r="C293" s="20" t="s">
+      <c r="C293" s="16" t="s">
         <v>287</v>
       </c>
       <c r="D293" s="16" t="s">
@@ -11784,7 +11778,7 @@
       <c r="B294" s="19">
         <v>40754</v>
       </c>
-      <c r="C294" s="21" t="s">
+      <c r="C294" s="17" t="s">
         <v>287</v>
       </c>
       <c r="D294" s="17" t="s">
@@ -11819,7 +11813,7 @@
       <c r="B295" s="18">
         <v>40997</v>
       </c>
-      <c r="C295" s="20" t="s">
+      <c r="C295" s="16" t="s">
         <v>287</v>
       </c>
       <c r="D295" s="16" t="s">
@@ -11854,7 +11848,7 @@
       <c r="B296" s="19">
         <v>41581</v>
       </c>
-      <c r="C296" s="21" t="s">
+      <c r="C296" s="17" t="s">
         <v>287</v>
       </c>
       <c r="D296" s="17" t="s">
@@ -11889,7 +11883,7 @@
       <c r="B297" s="18">
         <v>40186</v>
       </c>
-      <c r="C297" s="20" t="s">
+      <c r="C297" s="16" t="s">
         <v>293</v>
       </c>
       <c r="D297" s="16" t="s">
@@ -11924,7 +11918,7 @@
       <c r="B298" s="19">
         <v>40280</v>
       </c>
-      <c r="C298" s="21" t="s">
+      <c r="C298" s="17" t="s">
         <v>293</v>
       </c>
       <c r="D298" s="17" t="s">
@@ -11959,7 +11953,7 @@
       <c r="B299" s="18">
         <v>40374</v>
       </c>
-      <c r="C299" s="20" t="s">
+      <c r="C299" s="16" t="s">
         <v>293</v>
       </c>
       <c r="D299" s="16" t="s">
@@ -11994,7 +11988,7 @@
       <c r="B300" s="19">
         <v>40607</v>
       </c>
-      <c r="C300" s="21" t="s">
+      <c r="C300" s="17" t="s">
         <v>293</v>
       </c>
       <c r="D300" s="17" t="s">
@@ -12029,7 +12023,7 @@
       <c r="B301" s="18">
         <v>41147</v>
       </c>
-      <c r="C301" s="20" t="s">
+      <c r="C301" s="16" t="s">
         <v>293</v>
       </c>
       <c r="D301" s="16" t="s">
@@ -12064,7 +12058,7 @@
       <c r="B302" s="19">
         <v>41188</v>
       </c>
-      <c r="C302" s="21" t="s">
+      <c r="C302" s="17" t="s">
         <v>293</v>
       </c>
       <c r="D302" s="17" t="s">
@@ -12099,7 +12093,7 @@
       <c r="B303" s="18">
         <v>41431</v>
       </c>
-      <c r="C303" s="20" t="s">
+      <c r="C303" s="16" t="s">
         <v>293</v>
       </c>
       <c r="D303" s="16" t="s">
@@ -12134,7 +12128,7 @@
       <c r="B304" s="19">
         <v>40036</v>
       </c>
-      <c r="C304" s="21" t="s">
+      <c r="C304" s="17" t="s">
         <v>299</v>
       </c>
       <c r="D304" s="17" t="s">
@@ -12169,7 +12163,7 @@
       <c r="B305" s="18">
         <v>40620</v>
       </c>
-      <c r="C305" s="20" t="s">
+      <c r="C305" s="16" t="s">
         <v>299</v>
       </c>
       <c r="D305" s="16" t="s">
@@ -12204,7 +12198,7 @@
       <c r="B306" s="19">
         <v>40714</v>
       </c>
-      <c r="C306" s="21" t="s">
+      <c r="C306" s="17" t="s">
         <v>299</v>
       </c>
       <c r="D306" s="17" t="s">
@@ -12239,7 +12233,7 @@
       <c r="B307" s="18">
         <v>40808</v>
       </c>
-      <c r="C307" s="20" t="s">
+      <c r="C307" s="16" t="s">
         <v>299</v>
       </c>
       <c r="D307" s="16" t="s">
@@ -12274,7 +12268,7 @@
       <c r="B308" s="19">
         <v>41041</v>
       </c>
-      <c r="C308" s="21" t="s">
+      <c r="C308" s="17" t="s">
         <v>299</v>
       </c>
       <c r="D308" s="17" t="s">
@@ -12309,7 +12303,7 @@
       <c r="B309" s="18">
         <v>41581</v>
       </c>
-      <c r="C309" s="20" t="s">
+      <c r="C309" s="16" t="s">
         <v>299</v>
       </c>
       <c r="D309" s="16" t="s">
@@ -12344,7 +12338,7 @@
       <c r="B310" s="19">
         <v>41622</v>
       </c>
-      <c r="C310" s="21" t="s">
+      <c r="C310" s="17" t="s">
         <v>299</v>
       </c>
       <c r="D310" s="17" t="s">
@@ -12379,7 +12373,7 @@
       <c r="B311" s="18">
         <v>40186</v>
       </c>
-      <c r="C311" s="20" t="s">
+      <c r="C311" s="16" t="s">
         <v>306</v>
       </c>
       <c r="D311" s="16" t="s">
@@ -12414,7 +12408,7 @@
       <c r="B312" s="19">
         <v>40227</v>
       </c>
-      <c r="C312" s="21" t="s">
+      <c r="C312" s="17" t="s">
         <v>306</v>
       </c>
       <c r="D312" s="17" t="s">
@@ -12449,7 +12443,7 @@
       <c r="B313" s="18">
         <v>40470</v>
       </c>
-      <c r="C313" s="20" t="s">
+      <c r="C313" s="16" t="s">
         <v>306</v>
       </c>
       <c r="D313" s="16" t="s">
@@ -12484,7 +12478,7 @@
       <c r="B314" s="19">
         <v>41054</v>
       </c>
-      <c r="C314" s="21" t="s">
+      <c r="C314" s="17" t="s">
         <v>306</v>
       </c>
       <c r="D314" s="17" t="s">
@@ -12519,7 +12513,7 @@
       <c r="B315" s="18">
         <v>41148</v>
       </c>
-      <c r="C315" s="20" t="s">
+      <c r="C315" s="16" t="s">
         <v>306</v>
       </c>
       <c r="D315" s="16" t="s">
@@ -12554,7 +12548,7 @@
       <c r="B316" s="19">
         <v>41242</v>
       </c>
-      <c r="C316" s="21" t="s">
+      <c r="C316" s="17" t="s">
         <v>306</v>
       </c>
       <c r="D316" s="17" t="s">
@@ -12589,7 +12583,7 @@
       <c r="B317" s="18">
         <v>41475</v>
       </c>
-      <c r="C317" s="20" t="s">
+      <c r="C317" s="16" t="s">
         <v>306</v>
       </c>
       <c r="D317" s="16" t="s">
@@ -12624,7 +12618,7 @@
       <c r="B318" s="19">
         <v>39847</v>
       </c>
-      <c r="C318" s="21" t="s">
+      <c r="C318" s="17" t="s">
         <v>312</v>
       </c>
       <c r="D318" s="17" t="s">
@@ -12659,7 +12653,7 @@
       <c r="B319" s="18">
         <v>40080</v>
       </c>
-      <c r="C319" s="20" t="s">
+      <c r="C319" s="16" t="s">
         <v>312</v>
       </c>
       <c r="D319" s="16" t="s">
@@ -12694,7 +12688,7 @@
       <c r="B320" s="19">
         <v>40620</v>
       </c>
-      <c r="C320" s="21" t="s">
+      <c r="C320" s="17" t="s">
         <v>312</v>
       </c>
       <c r="D320" s="17" t="s">
@@ -12729,7 +12723,7 @@
       <c r="B321" s="18">
         <v>40661</v>
       </c>
-      <c r="C321" s="20" t="s">
+      <c r="C321" s="16" t="s">
         <v>312</v>
       </c>
       <c r="D321" s="16" t="s">
@@ -12764,7 +12758,7 @@
       <c r="B322" s="19">
         <v>40904</v>
       </c>
-      <c r="C322" s="21" t="s">
+      <c r="C322" s="17" t="s">
         <v>312</v>
       </c>
       <c r="D322" s="17" t="s">
@@ -12799,7 +12793,7 @@
       <c r="B323" s="18">
         <v>41488</v>
       </c>
-      <c r="C323" s="20" t="s">
+      <c r="C323" s="16" t="s">
         <v>312</v>
       </c>
       <c r="D323" s="16" t="s">
@@ -12834,7 +12828,7 @@
       <c r="B324" s="19">
         <v>41582</v>
       </c>
-      <c r="C324" s="21" t="s">
+      <c r="C324" s="17" t="s">
         <v>312</v>
       </c>
       <c r="D324" s="17" t="s">
@@ -12869,7 +12863,7 @@
       <c r="B325" s="18">
         <v>40093</v>
       </c>
-      <c r="C325" s="20" t="s">
+      <c r="C325" s="16" t="s">
         <v>318</v>
       </c>
       <c r="D325" s="16" t="s">
@@ -12904,7 +12898,7 @@
       <c r="B326" s="19">
         <v>40187</v>
       </c>
-      <c r="C326" s="21" t="s">
+      <c r="C326" s="17" t="s">
         <v>318</v>
       </c>
       <c r="D326" s="17" t="s">
@@ -12939,7 +12933,7 @@
       <c r="B327" s="18">
         <v>40281</v>
       </c>
-      <c r="C327" s="20" t="s">
+      <c r="C327" s="16" t="s">
         <v>318</v>
       </c>
       <c r="D327" s="16" t="s">
@@ -12974,7 +12968,7 @@
       <c r="B328" s="19">
         <v>40514</v>
       </c>
-      <c r="C328" s="21" t="s">
+      <c r="C328" s="17" t="s">
         <v>318</v>
       </c>
       <c r="D328" s="17" t="s">
@@ -13009,7 +13003,7 @@
       <c r="B329" s="18">
         <v>41054</v>
       </c>
-      <c r="C329" s="20" t="s">
+      <c r="C329" s="16" t="s">
         <v>318</v>
       </c>
       <c r="D329" s="16" t="s">
@@ -13044,7 +13038,7 @@
       <c r="B330" s="19">
         <v>41095</v>
       </c>
-      <c r="C330" s="21" t="s">
+      <c r="C330" s="17" t="s">
         <v>318</v>
       </c>
       <c r="D330" s="17" t="s">
@@ -13079,7 +13073,7 @@
       <c r="B331" s="18">
         <v>41338</v>
       </c>
-      <c r="C331" s="20" t="s">
+      <c r="C331" s="16" t="s">
         <v>318</v>
       </c>
       <c r="D331" s="16" t="s">
@@ -13114,7 +13108,7 @@
       <c r="B332" s="19">
         <v>39943</v>
       </c>
-      <c r="C332" s="21" t="s">
+      <c r="C332" s="17" t="s">
         <v>326</v>
       </c>
       <c r="D332" s="17" t="s">
@@ -13149,7 +13143,7 @@
       <c r="B333" s="18">
         <v>40527</v>
       </c>
-      <c r="C333" s="20" t="s">
+      <c r="C333" s="16" t="s">
         <v>326</v>
       </c>
       <c r="D333" s="16" t="s">
@@ -13184,7 +13178,7 @@
       <c r="B334" s="19">
         <v>40621</v>
       </c>
-      <c r="C334" s="21" t="s">
+      <c r="C334" s="17" t="s">
         <v>326</v>
       </c>
       <c r="D334" s="17" t="s">
@@ -13219,7 +13213,7 @@
       <c r="B335" s="18">
         <v>40715</v>
       </c>
-      <c r="C335" s="20" t="s">
+      <c r="C335" s="16" t="s">
         <v>326</v>
       </c>
       <c r="D335" s="16" t="s">
@@ -13254,7 +13248,7 @@
       <c r="B336" s="19">
         <v>40948</v>
       </c>
-      <c r="C336" s="21" t="s">
+      <c r="C336" s="17" t="s">
         <v>326</v>
       </c>
       <c r="D336" s="17" t="s">
@@ -13289,7 +13283,7 @@
       <c r="B337" s="18">
         <v>41488</v>
       </c>
-      <c r="C337" s="20" t="s">
+      <c r="C337" s="16" t="s">
         <v>326</v>
       </c>
       <c r="D337" s="16" t="s">
@@ -13324,7 +13318,7 @@
       <c r="B338" s="19">
         <v>41529</v>
       </c>
-      <c r="C338" s="21" t="s">
+      <c r="C338" s="17" t="s">
         <v>326</v>
       </c>
       <c r="D338" s="17" t="s">
@@ -13359,7 +13353,7 @@
       <c r="B339" s="18">
         <v>40093</v>
       </c>
-      <c r="C339" s="20" t="s">
+      <c r="C339" s="16" t="s">
         <v>334</v>
       </c>
       <c r="D339" s="16" t="s">
@@ -13394,7 +13388,7 @@
       <c r="B340" s="19">
         <v>40134</v>
       </c>
-      <c r="C340" s="21" t="s">
+      <c r="C340" s="17" t="s">
         <v>334</v>
       </c>
       <c r="D340" s="17" t="s">
@@ -13429,7 +13423,7 @@
       <c r="B341" s="18">
         <v>40377</v>
       </c>
-      <c r="C341" s="20" t="s">
+      <c r="C341" s="16" t="s">
         <v>334</v>
       </c>
       <c r="D341" s="16" t="s">
@@ -13464,7 +13458,7 @@
       <c r="B342" s="19">
         <v>40961</v>
       </c>
-      <c r="C342" s="21" t="s">
+      <c r="C342" s="17" t="s">
         <v>334</v>
       </c>
       <c r="D342" s="17" t="s">
@@ -13499,7 +13493,7 @@
       <c r="B343" s="18">
         <v>41055</v>
       </c>
-      <c r="C343" s="20" t="s">
+      <c r="C343" s="16" t="s">
         <v>334</v>
       </c>
       <c r="D343" s="16" t="s">
@@ -13534,7 +13528,7 @@
       <c r="B344" s="19">
         <v>41149</v>
       </c>
-      <c r="C344" s="21" t="s">
+      <c r="C344" s="17" t="s">
         <v>334</v>
       </c>
       <c r="D344" s="17" t="s">
@@ -13569,7 +13563,7 @@
       <c r="B345" s="18">
         <v>41382</v>
       </c>
-      <c r="C345" s="20" t="s">
+      <c r="C345" s="16" t="s">
         <v>334</v>
       </c>
       <c r="D345" s="16" t="s">
@@ -13604,7 +13598,7 @@
       <c r="B346" s="19">
         <v>39987</v>
       </c>
-      <c r="C346" s="21" t="s">
+      <c r="C346" s="17" t="s">
         <v>341</v>
       </c>
       <c r="D346" s="17" t="s">
@@ -13639,7 +13633,7 @@
       <c r="B347" s="18">
         <v>40527</v>
       </c>
-      <c r="C347" s="20" t="s">
+      <c r="C347" s="16" t="s">
         <v>341</v>
       </c>
       <c r="D347" s="16" t="s">
@@ -13674,7 +13668,7 @@
       <c r="B348" s="19">
         <v>40568</v>
       </c>
-      <c r="C348" s="21" t="s">
+      <c r="C348" s="17" t="s">
         <v>341</v>
       </c>
       <c r="D348" s="17" t="s">
@@ -13709,7 +13703,7 @@
       <c r="B349" s="18">
         <v>40811</v>
       </c>
-      <c r="C349" s="20" t="s">
+      <c r="C349" s="16" t="s">
         <v>341</v>
       </c>
       <c r="D349" s="16" t="s">
@@ -13744,7 +13738,7 @@
       <c r="B350" s="19">
         <v>41395</v>
       </c>
-      <c r="C350" s="21" t="s">
+      <c r="C350" s="17" t="s">
         <v>341</v>
       </c>
       <c r="D350" s="17" t="s">
@@ -13779,7 +13773,7 @@
       <c r="B351" s="18">
         <v>41489</v>
       </c>
-      <c r="C351" s="20" t="s">
+      <c r="C351" s="16" t="s">
         <v>341</v>
       </c>
       <c r="D351" s="16" t="s">
@@ -13814,7 +13808,7 @@
       <c r="B352" s="19">
         <v>41583</v>
       </c>
-      <c r="C352" s="21" t="s">
+      <c r="C352" s="17" t="s">
         <v>341</v>
       </c>
       <c r="D352" s="17" t="s">
@@ -13849,7 +13843,7 @@
       <c r="B353" s="18">
         <v>40000</v>
       </c>
-      <c r="C353" s="20" t="s">
+      <c r="C353" s="16" t="s">
         <v>348</v>
       </c>
       <c r="D353" s="16" t="s">
@@ -13884,7 +13878,7 @@
       <c r="B354" s="19">
         <v>40094</v>
       </c>
-      <c r="C354" s="21" t="s">
+      <c r="C354" s="17" t="s">
         <v>348</v>
       </c>
       <c r="D354" s="17" t="s">
@@ -13919,7 +13913,7 @@
       <c r="B355" s="18">
         <v>40188</v>
       </c>
-      <c r="C355" s="20" t="s">
+      <c r="C355" s="16" t="s">
         <v>348</v>
       </c>
       <c r="D355" s="16" t="s">
@@ -13954,7 +13948,7 @@
       <c r="B356" s="19">
         <v>40421</v>
       </c>
-      <c r="C356" s="21" t="s">
+      <c r="C356" s="17" t="s">
         <v>348</v>
       </c>
       <c r="D356" s="17" t="s">
@@ -13989,7 +13983,7 @@
       <c r="B357" s="18">
         <v>40961</v>
       </c>
-      <c r="C357" s="20" t="s">
+      <c r="C357" s="16" t="s">
         <v>348</v>
       </c>
       <c r="D357" s="16" t="s">
@@ -14024,7 +14018,7 @@
       <c r="B358" s="19">
         <v>41002</v>
       </c>
-      <c r="C358" s="21" t="s">
+      <c r="C358" s="17" t="s">
         <v>348</v>
       </c>
       <c r="D358" s="17" t="s">
@@ -14059,7 +14053,7 @@
       <c r="B359" s="18">
         <v>41245</v>
       </c>
-      <c r="C359" s="20" t="s">
+      <c r="C359" s="16" t="s">
         <v>348</v>
       </c>
       <c r="D359" s="16" t="s">
@@ -14094,7 +14088,7 @@
       <c r="B360" s="19">
         <v>39850</v>
       </c>
-      <c r="C360" s="21" t="s">
+      <c r="C360" s="17" t="s">
         <v>355</v>
       </c>
       <c r="D360" s="17" t="s">
@@ -14129,7 +14123,7 @@
       <c r="B361" s="18">
         <v>40434</v>
       </c>
-      <c r="C361" s="20" t="s">
+      <c r="C361" s="16" t="s">
         <v>355</v>
       </c>
       <c r="D361" s="16" t="s">
@@ -14164,7 +14158,7 @@
       <c r="B362" s="19">
         <v>40528</v>
       </c>
-      <c r="C362" s="21" t="s">
+      <c r="C362" s="17" t="s">
         <v>355</v>
       </c>
       <c r="D362" s="17" t="s">
@@ -14199,7 +14193,7 @@
       <c r="B363" s="18">
         <v>40622</v>
       </c>
-      <c r="C363" s="20" t="s">
+      <c r="C363" s="16" t="s">
         <v>355</v>
       </c>
       <c r="D363" s="16" t="s">
@@ -14234,7 +14228,7 @@
       <c r="B364" s="19">
         <v>40855</v>
       </c>
-      <c r="C364" s="21" t="s">
+      <c r="C364" s="17" t="s">
         <v>355</v>
       </c>
       <c r="D364" s="17" t="s">
@@ -14269,7 +14263,7 @@
       <c r="B365" s="18">
         <v>41395</v>
       </c>
-      <c r="C365" s="20" t="s">
+      <c r="C365" s="16" t="s">
         <v>355</v>
       </c>
       <c r="D365" s="16" t="s">
@@ -14304,7 +14298,7 @@
       <c r="B366" s="19">
         <v>41436</v>
       </c>
-      <c r="C366" s="21" t="s">
+      <c r="C366" s="17" t="s">
         <v>355</v>
       </c>
       <c r="D366" s="17" t="s">
@@ -14339,7 +14333,7 @@
       <c r="B367" s="18">
         <v>40000</v>
       </c>
-      <c r="C367" s="20" t="s">
+      <c r="C367" s="16" t="s">
         <v>362</v>
       </c>
       <c r="D367" s="16" t="s">
@@ -14374,7 +14368,7 @@
       <c r="B368" s="19">
         <v>40041</v>
       </c>
-      <c r="C368" s="21" t="s">
+      <c r="C368" s="17" t="s">
         <v>362</v>
       </c>
       <c r="D368" s="17" t="s">
@@ -14409,7 +14403,7 @@
       <c r="B369" s="18">
         <v>40284</v>
       </c>
-      <c r="C369" s="20" t="s">
+      <c r="C369" s="16" t="s">
         <v>362</v>
       </c>
       <c r="D369" s="16" t="s">
@@ -14444,7 +14438,7 @@
       <c r="B370" s="19">
         <v>40868</v>
       </c>
-      <c r="C370" s="21" t="s">
+      <c r="C370" s="17" t="s">
         <v>362</v>
       </c>
       <c r="D370" s="17" t="s">
@@ -14479,7 +14473,7 @@
       <c r="B371" s="18">
         <v>40962</v>
       </c>
-      <c r="C371" s="20" t="s">
+      <c r="C371" s="16" t="s">
         <v>362</v>
       </c>
       <c r="D371" s="16" t="s">
@@ -14514,7 +14508,7 @@
       <c r="B372" s="19">
         <v>41056</v>
       </c>
-      <c r="C372" s="21" t="s">
+      <c r="C372" s="17" t="s">
         <v>362</v>
       </c>
       <c r="D372" s="17" t="s">
@@ -14549,7 +14543,7 @@
       <c r="B373" s="18">
         <v>41289</v>
       </c>
-      <c r="C373" s="20" t="s">
+      <c r="C373" s="16" t="s">
         <v>362</v>
       </c>
       <c r="D373" s="16" t="s">
@@ -14584,7 +14578,7 @@
       <c r="B374" s="19">
         <v>39894</v>
       </c>
-      <c r="C374" s="21" t="s">
+      <c r="C374" s="17" t="s">
         <v>367</v>
       </c>
       <c r="D374" s="17" t="s">
@@ -14619,7 +14613,7 @@
       <c r="B375" s="18">
         <v>40434</v>
       </c>
-      <c r="C375" s="20" t="s">
+      <c r="C375" s="16" t="s">
         <v>367</v>
       </c>
       <c r="D375" s="16" t="s">
@@ -14654,7 +14648,7 @@
       <c r="B376" s="19">
         <v>40475</v>
       </c>
-      <c r="C376" s="21" t="s">
+      <c r="C376" s="17" t="s">
         <v>367</v>
       </c>
       <c r="D376" s="17" t="s">
@@ -14689,7 +14683,7 @@
       <c r="B377" s="18">
         <v>40718</v>
       </c>
-      <c r="C377" s="20" t="s">
+      <c r="C377" s="16" t="s">
         <v>367</v>
       </c>
       <c r="D377" s="16" t="s">
@@ -14724,7 +14718,7 @@
       <c r="B378" s="19">
         <v>41302</v>
       </c>
-      <c r="C378" s="21" t="s">
+      <c r="C378" s="17" t="s">
         <v>367</v>
       </c>
       <c r="D378" s="17" t="s">
@@ -14759,7 +14753,7 @@
       <c r="B379" s="18">
         <v>41396</v>
       </c>
-      <c r="C379" s="20" t="s">
+      <c r="C379" s="16" t="s">
         <v>367</v>
       </c>
       <c r="D379" s="16" t="s">
@@ -14794,7 +14788,7 @@
       <c r="B380" s="19">
         <v>41490</v>
       </c>
-      <c r="C380" s="21" t="s">
+      <c r="C380" s="17" t="s">
         <v>367</v>
       </c>
       <c r="D380" s="17" t="s">
@@ -14829,7 +14823,7 @@
       <c r="B381" s="18">
         <v>39907</v>
       </c>
-      <c r="C381" s="20" t="s">
+      <c r="C381" s="16" t="s">
         <v>373</v>
       </c>
       <c r="D381" s="16" t="s">
@@ -14864,7 +14858,7 @@
       <c r="B382" s="19">
         <v>40001</v>
       </c>
-      <c r="C382" s="21" t="s">
+      <c r="C382" s="17" t="s">
         <v>373</v>
       </c>
       <c r="D382" s="17" t="s">
@@ -14899,7 +14893,7 @@
       <c r="B383" s="18">
         <v>40095</v>
       </c>
-      <c r="C383" s="20" t="s">
+      <c r="C383" s="16" t="s">
         <v>373</v>
       </c>
       <c r="D383" s="16" t="s">
@@ -14934,7 +14928,7 @@
       <c r="B384" s="19">
         <v>40328</v>
       </c>
-      <c r="C384" s="21" t="s">
+      <c r="C384" s="17" t="s">
         <v>373</v>
       </c>
       <c r="D384" s="17" t="s">
@@ -14969,7 +14963,7 @@
       <c r="B385" s="18">
         <v>40868</v>
       </c>
-      <c r="C385" s="20" t="s">
+      <c r="C385" s="16" t="s">
         <v>373</v>
       </c>
       <c r="D385" s="16" t="s">
@@ -15004,7 +14998,7 @@
       <c r="B386" s="19">
         <v>40909</v>
       </c>
-      <c r="C386" s="21" t="s">
+      <c r="C386" s="17" t="s">
         <v>373</v>
       </c>
       <c r="D386" s="17" t="s">
@@ -15039,7 +15033,7 @@
       <c r="B387" s="18">
         <v>41152</v>
       </c>
-      <c r="C387" s="20" t="s">
+      <c r="C387" s="16" t="s">
         <v>373</v>
       </c>
       <c r="D387" s="16" t="s">
@@ -15074,7 +15068,7 @@
       <c r="B388" s="19">
         <v>40341</v>
       </c>
-      <c r="C388" s="21" t="s">
+      <c r="C388" s="17" t="s">
         <v>381</v>
       </c>
       <c r="D388" s="17" t="s">
@@ -15109,7 +15103,7 @@
       <c r="B389" s="18">
         <v>40435</v>
       </c>
-      <c r="C389" s="20" t="s">
+      <c r="C389" s="16" t="s">
         <v>381</v>
       </c>
       <c r="D389" s="16" t="s">
@@ -15144,7 +15138,7 @@
       <c r="B390" s="19">
         <v>40529</v>
       </c>
-      <c r="C390" s="21" t="s">
+      <c r="C390" s="17" t="s">
         <v>381</v>
       </c>
       <c r="D390" s="17" t="s">
@@ -15179,7 +15173,7 @@
       <c r="B391" s="18">
         <v>40762</v>
       </c>
-      <c r="C391" s="20" t="s">
+      <c r="C391" s="16" t="s">
         <v>381</v>
       </c>
       <c r="D391" s="16" t="s">
@@ -15214,7 +15208,7 @@
       <c r="B392" s="19">
         <v>41302</v>
       </c>
-      <c r="C392" s="21" t="s">
+      <c r="C392" s="17" t="s">
         <v>381</v>
       </c>
       <c r="D392" s="17" t="s">
@@ -15249,7 +15243,7 @@
       <c r="B393" s="18">
         <v>41343</v>
       </c>
-      <c r="C393" s="20" t="s">
+      <c r="C393" s="16" t="s">
         <v>381</v>
       </c>
       <c r="D393" s="16" t="s">
@@ -15284,7 +15278,7 @@
       <c r="B394" s="19">
         <v>41586</v>
       </c>
-      <c r="C394" s="21" t="s">
+      <c r="C394" s="17" t="s">
         <v>381</v>
       </c>
       <c r="D394" s="17" t="s">
@@ -15319,7 +15313,7 @@
       <c r="B395" s="18">
         <v>39907</v>
       </c>
-      <c r="C395" s="20" t="s">
+      <c r="C395" s="16" t="s">
         <v>388</v>
       </c>
       <c r="D395" s="16" t="s">
@@ -15354,7 +15348,7 @@
       <c r="B396" s="19">
         <v>39948</v>
       </c>
-      <c r="C396" s="21" t="s">
+      <c r="C396" s="17" t="s">
         <v>388</v>
       </c>
       <c r="D396" s="17" t="s">
@@ -15389,7 +15383,7 @@
       <c r="B397" s="18">
         <v>40191</v>
       </c>
-      <c r="C397" s="20" t="s">
+      <c r="C397" s="16" t="s">
         <v>388</v>
       </c>
       <c r="D397" s="16" t="s">
@@ -15424,7 +15418,7 @@
       <c r="B398" s="19">
         <v>40775</v>
       </c>
-      <c r="C398" s="21" t="s">
+      <c r="C398" s="17" t="s">
         <v>388</v>
       </c>
       <c r="D398" s="17" t="s">
@@ -15459,7 +15453,7 @@
       <c r="B399" s="18">
         <v>40869</v>
       </c>
-      <c r="C399" s="20" t="s">
+      <c r="C399" s="16" t="s">
         <v>388</v>
       </c>
       <c r="D399" s="16" t="s">
@@ -15494,7 +15488,7 @@
       <c r="B400" s="19">
         <v>40963</v>
       </c>
-      <c r="C400" s="21" t="s">
+      <c r="C400" s="17" t="s">
         <v>388</v>
       </c>
       <c r="D400" s="17" t="s">
@@ -15529,7 +15523,7 @@
       <c r="B401" s="18">
         <v>41196</v>
       </c>
-      <c r="C401" s="20" t="s">
+      <c r="C401" s="16" t="s">
         <v>388</v>
       </c>
       <c r="D401" s="16" t="s">
@@ -15564,7 +15558,7 @@
       <c r="B402" s="19">
         <v>40341</v>
       </c>
-      <c r="C402" s="21" t="s">
+      <c r="C402" s="17" t="s">
         <v>394</v>
       </c>
       <c r="D402" s="17" t="s">
@@ -15599,7 +15593,7 @@
       <c r="B403" s="18">
         <v>40382</v>
       </c>
-      <c r="C403" s="20" t="s">
+      <c r="C403" s="16" t="s">
         <v>394</v>
       </c>
       <c r="D403" s="16" t="s">
@@ -15634,7 +15628,7 @@
       <c r="B404" s="19">
         <v>40625</v>
       </c>
-      <c r="C404" s="21" t="s">
+      <c r="C404" s="17" t="s">
         <v>394</v>
       </c>
       <c r="D404" s="17" t="s">
@@ -15669,7 +15663,7 @@
       <c r="B405" s="18">
         <v>41209</v>
       </c>
-      <c r="C405" s="20" t="s">
+      <c r="C405" s="16" t="s">
         <v>394</v>
       </c>
       <c r="D405" s="16" t="s">
@@ -15704,7 +15698,7 @@
       <c r="B406" s="19">
         <v>41303</v>
       </c>
-      <c r="C406" s="21" t="s">
+      <c r="C406" s="17" t="s">
         <v>394</v>
       </c>
       <c r="D406" s="17" t="s">
@@ -15739,7 +15733,7 @@
       <c r="B407" s="18">
         <v>41397</v>
       </c>
-      <c r="C407" s="20" t="s">
+      <c r="C407" s="16" t="s">
         <v>394</v>
       </c>
       <c r="D407" s="16" t="s">
@@ -15774,7 +15768,7 @@
       <c r="B408" s="19">
         <v>41630</v>
       </c>
-      <c r="C408" s="21" t="s">
+      <c r="C408" s="17" t="s">
         <v>394</v>
       </c>
       <c r="D408" s="17" t="s">
@@ -15809,7 +15803,7 @@
       <c r="B409" s="18">
         <v>39908</v>
       </c>
-      <c r="C409" s="20" t="s">
+      <c r="C409" s="16" t="s">
         <v>401</v>
       </c>
       <c r="D409" s="16" t="s">
@@ -15844,7 +15838,7 @@
       <c r="B410" s="19">
         <v>40002</v>
       </c>
-      <c r="C410" s="21" t="s">
+      <c r="C410" s="17" t="s">
         <v>401</v>
       </c>
       <c r="D410" s="17" t="s">
@@ -15879,7 +15873,7 @@
       <c r="B411" s="18">
         <v>40235</v>
       </c>
-      <c r="C411" s="20" t="s">
+      <c r="C411" s="16" t="s">
         <v>401</v>
       </c>
       <c r="D411" s="16" t="s">
@@ -15914,7 +15908,7 @@
       <c r="B412" s="19">
         <v>40775</v>
       </c>
-      <c r="C412" s="21" t="s">
+      <c r="C412" s="17" t="s">
         <v>401</v>
       </c>
       <c r="D412" s="17" t="s">
@@ -15949,7 +15943,7 @@
       <c r="B413" s="18">
         <v>40816</v>
       </c>
-      <c r="C413" s="20" t="s">
+      <c r="C413" s="16" t="s">
         <v>401</v>
       </c>
       <c r="D413" s="16" t="s">
@@ -15984,7 +15978,7 @@
       <c r="B414" s="19">
         <v>41059</v>
       </c>
-      <c r="C414" s="21" t="s">
+      <c r="C414" s="17" t="s">
         <v>401</v>
       </c>
       <c r="D414" s="17" t="s">
